--- a/Тест-кейсы.xlsx
+++ b/Тест-кейсы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanak\Desktop\Скам на бесплатную РАБоту\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C906F897-526A-4CE8-861E-EF05F33CC9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E59130-21AD-4500-BCA6-BB5DB401DB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C8BC76C-FCF3-45B7-88A6-2BF3106E98A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6C8BC76C-FCF3-45B7-88A6-2BF3106E98A3}"/>
   </bookViews>
   <sheets>
     <sheet name="ping (GET)" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="229">
   <si>
     <t>№</t>
   </si>
@@ -206,16 +206,6 @@
 Нет totalprice
 Нет depositpaid
 Нет additionalneeds</t>
-  </si>
-  <si>
-    <t>Проверить на разных входных данных:
-Базовый пример (Jim Brown, 111, Breakfast)
-Юникод «李 / 王»
-Имя с апострофом O'Connor
-depositpaid = false
-totalprice = 0 и 2147483647
-additionalneeds = "" (пусто)
-additionalneeds = 255 симв.</t>
   </si>
   <si>
     <t>Невалидный JSON - неверные типы/диапазоны</t>
@@ -591,9 +581,6 @@
     <t>400 Bad Request; сообщение о неверном формате даты</t>
   </si>
   <si>
-    <t>Так же провверить несуществующие даты например 2025-30-02</t>
-  </si>
-  <si>
     <t>NBG-4</t>
   </si>
   <si>
@@ -1217,6 +1204,29 @@
   </si>
   <si>
     <t>405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>Так же проверить несуществующие даты например 2025-30-02</t>
+  </si>
+  <si>
+    <t>400 Bad Request/404 Not Found</t>
+  </si>
+  <si>
+    <t>1. Отправить запрос
+2. Проверить код и тело ответа</t>
+  </si>
+  <si>
+    <t>Проверить на разных входных данных:
+Базовый пример (Jim Brown, 111, Breakfast)
+Юникод «李 / 王»
+Имя с апострофом O'Connor
+depositpaid = false
+totalprice = 0 и 2147483647, дробное число
+additionalneeds = "" (пусто)
+additionalneeds = 255 симв.</t>
+  </si>
+  <si>
+    <t>200, тело ответа содержит точную копию отправленных данных, кроме дробного числа totalprice</t>
   </si>
 </sst>
 </file>
@@ -1330,11 +1340,11 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1342,6 +1352,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1369,6 +1386,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1377,13 +1401,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1411,27 +1428,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1447,107 +1443,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1893,9 +1788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E27FB-5395-4C0E-A784-23794100E20B}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1920,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -1943,19 +1838,19 @@
     </row>
     <row r="2" spans="1:9" ht="43.2">
       <c r="A2" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="3">
         <v>200</v>
@@ -1970,19 +1865,19 @@
     </row>
     <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="3">
         <v>404</v>
@@ -1994,7 +1889,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2066,7 +1961,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2091,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -2123,7 +2018,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
@@ -2138,7 +2033,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="86.4">
@@ -2152,16 +2047,16 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>14</v>
@@ -2179,16 +2074,16 @@
         <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>14</v>
@@ -2206,16 +2101,16 @@
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>14</v>
@@ -2233,16 +2128,16 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>14</v>
@@ -2260,16 +2155,16 @@
         <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>14</v>
@@ -2287,16 +2182,16 @@
         <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>14</v>
@@ -2314,16 +2209,16 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>13</v>
@@ -2341,16 +2236,16 @@
         <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>14</v>
@@ -2368,7 +2263,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>20</v>
@@ -2383,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="100.8">
@@ -2397,16 +2292,16 @@
         <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>14</v>
@@ -2504,9 +2399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0520685-114B-47C6-AFCF-68D8D9935173}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H5"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2531,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -2554,7 +2449,7 @@
     </row>
     <row r="2" spans="1:9" ht="216">
       <c r="A2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -2563,7 +2458,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
@@ -2572,18 +2467,18 @@
         <v>42</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>46</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="201.6">
       <c r="A3" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -2592,13 +2487,13 @@
         <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G3" s="3">
         <v>500</v>
@@ -2612,22 +2507,22 @@
     </row>
     <row r="4" spans="1:9" ht="216">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G4" s="3">
         <v>500</v>
@@ -2636,27 +2531,27 @@
         <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="216">
       <c r="A5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="G5" s="3">
         <v>500</v>
@@ -2734,8 +2629,8 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2760,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -2783,25 +2678,25 @@
     </row>
     <row r="2" spans="1:9" ht="72">
       <c r="A2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>13</v>
@@ -2810,25 +2705,25 @@
     </row>
     <row r="3" spans="1:9" ht="72">
       <c r="A3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -2836,25 +2731,25 @@
     </row>
     <row r="4" spans="1:9" ht="72">
       <c r="A4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -2862,25 +2757,25 @@
     </row>
     <row r="5" spans="1:9" ht="72">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>13</v>
@@ -2888,25 +2783,25 @@
     </row>
     <row r="6" spans="1:9" ht="72">
       <c r="A6" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>14</v>
@@ -2914,25 +2809,25 @@
     </row>
     <row r="7" spans="1:9" ht="72">
       <c r="A7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>14</v>
@@ -2940,25 +2835,25 @@
     </row>
     <row r="8" spans="1:9" ht="72">
       <c r="A8" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
@@ -2966,80 +2861,80 @@
     </row>
     <row r="9" spans="1:9" ht="43.2">
       <c r="A9" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="72">
       <c r="A10" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6">
       <c r="A11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G11" s="3">
         <v>500</v>
@@ -3048,30 +2943,30 @@
         <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="43.2">
       <c r="A12" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
@@ -3079,54 +2974,54 @@
     </row>
     <row r="13" spans="1:9" ht="43.2">
       <c r="A13" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="86.4">
       <c r="A14" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>13</v>
@@ -3200,8 +3095,8 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3226,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -3249,25 +3144,25 @@
     </row>
     <row r="2" spans="1:9" ht="57.6">
       <c r="A2" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>13</v>
@@ -3276,25 +3171,25 @@
     </row>
     <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -3302,45 +3197,45 @@
     </row>
     <row r="4" spans="1:9" ht="43.2">
       <c r="A4" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="230.4">
       <c r="A5" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>42</v>
@@ -3352,30 +3247,30 @@
         <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="216">
       <c r="A6" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>13</v>
@@ -3383,25 +3278,25 @@
     </row>
     <row r="7" spans="1:9" ht="230.4">
       <c r="A7" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>13</v>
@@ -3409,25 +3304,25 @@
     </row>
     <row r="8" spans="1:9" ht="230.4">
       <c r="A8" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
@@ -3435,25 +3330,25 @@
     </row>
     <row r="9" spans="1:9" ht="216">
       <c r="A9" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>13</v>
@@ -3464,83 +3359,83 @@
     </row>
     <row r="10" spans="1:9" ht="230.4">
       <c r="A10" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="115.2">
       <c r="A11" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="100.8">
       <c r="A12" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
@@ -3548,25 +3443,25 @@
     </row>
     <row r="13" spans="1:9" ht="115.2">
       <c r="A13" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>13</v>
@@ -3574,25 +3469,25 @@
     </row>
     <row r="14" spans="1:9" ht="115.2">
       <c r="A14" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>13</v>
@@ -3600,25 +3495,25 @@
     </row>
     <row r="15" spans="1:9" ht="86.4">
       <c r="A15" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>13</v>
@@ -3626,54 +3521,54 @@
     </row>
     <row r="16" spans="1:9" ht="129.6">
       <c r="A16" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="57.6">
       <c r="A17" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>14</v>
@@ -3681,25 +3576,25 @@
     </row>
     <row r="18" spans="1:8" ht="100.8">
       <c r="A18" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>14</v>
@@ -3707,25 +3602,25 @@
     </row>
     <row r="19" spans="1:8" ht="28.8">
       <c r="A19" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>13</v>
@@ -3733,25 +3628,25 @@
     </row>
     <row r="20" spans="1:8" ht="28.8">
       <c r="A20" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>14</v>
